--- a/Notes/string_methods.xlsx
+++ b/Notes/string_methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\emplicar\emplicar\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3BDB11-E5DC-4917-B61F-80E18835D9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7862390-FB8B-4723-BCBC-8FCC585799AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,14 +586,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3ADE02-2773-475B-87CC-F7EEC2C5EB94}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.77734375" bestFit="1" customWidth="1"/>
   </cols>
